--- a/client/public/image/Payment_Report.xlsx
+++ b/client/public/image/Payment_Report.xlsx
@@ -12,7 +12,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -29,6 +29,9 @@
       <b/>
       <color rgb="000000"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -68,13 +71,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,6 +465,93 @@
         <v>Date</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <v>a</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>TEACHERS TRAINING ( MTT )</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <v> Prospectus</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <v>Cash Payment Done</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>12 September, 2025 10:59 AM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <v>a</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>TEACHERS TRAINING ( MTT )</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <v>Admission fee</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <v>2000.00</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <v>333</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <v>9 September, 2025 12:50 PM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <v>a</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>TEACHERS TRAINING ( MTT )</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <v>Admission fee</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <v>6000.00</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <v>555555</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <v>9 September, 2025 01:09 PM</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
